--- a/Computational-books&papers/private/801.xlsx
+++ b/Computational-books&papers/private/801.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/Rosters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E18A37-611A-4731-9DED-52F8A49B1E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1824667-C48C-45C9-9486-A62540E57824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="420" windowWidth="18150" windowHeight="13380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ps" sheetId="1" r:id="rId1"/>
+    <sheet name="ps (17)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Notify</t>
   </si>
@@ -131,12 +131,75 @@
   </si>
   <si>
     <t>Winton,Shannon Marie</t>
+  </si>
+  <si>
+    <t>lab1</t>
+  </si>
+  <si>
+    <t>work1</t>
+  </si>
+  <si>
+    <t>lab2</t>
+  </si>
+  <si>
+    <t>work2</t>
+  </si>
+  <si>
+    <t>lab3</t>
+  </si>
+  <si>
+    <t>work3</t>
+  </si>
+  <si>
+    <t>lab4</t>
+  </si>
+  <si>
+    <t>work4</t>
+  </si>
+  <si>
+    <t>lab5</t>
+  </si>
+  <si>
+    <t>work5</t>
+  </si>
+  <si>
+    <t>lab6</t>
+  </si>
+  <si>
+    <t>work6</t>
+  </si>
+  <si>
+    <t>b++</t>
+  </si>
+  <si>
+    <t>d+</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f++</t>
+  </si>
+  <si>
+    <t>g++</t>
+  </si>
+  <si>
+    <t>h++</t>
+  </si>
+  <si>
+    <t>c+</t>
+  </si>
+  <si>
+    <t>a++</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,10 +1072,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1026,7 +1091,7 @@
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1116,47 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1073,8 +1177,25 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1095,8 +1216,27 @@
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="1">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1117,8 +1257,27 @@
       <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="1">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1139,8 +1298,27 @@
       <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="1">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1161,8 +1339,27 @@
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I6" s="1">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1183,8 +1380,25 @@
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1205,8 +1419,27 @@
       <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I8" s="1">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1227,8 +1460,27 @@
       <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I9" s="1">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1249,8 +1501,27 @@
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I10" s="1">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1271,8 +1542,25 @@
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1293,8 +1581,27 @@
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="1">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -1315,8 +1622,27 @@
       <c r="H13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="1">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
@@ -1337,8 +1663,27 @@
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I14" s="1">
+        <v>53</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -1359,8 +1704,27 @@
       <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I15" s="1">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1381,8 +1745,27 @@
       <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I16" s="1">
+        <v>53</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
@@ -1403,8 +1786,27 @@
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I17" s="1">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>1</v>
@@ -1425,8 +1827,25 @@
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -1447,8 +1866,27 @@
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I19" s="1">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1469,6 +1907,25 @@
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I20" s="1">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1477,6 +1934,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005789861B4AC166498CF31F7C64E93238" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20b9ac66db6402ca7b720c4647acc95e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c740888d-e76c-4a8c-9ce1-656901917f99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6087beea90c2e613138f32a5d0e4024" ns3:_="">
     <xsd:import namespace="c740888d-e76c-4a8c-9ce1-656901917f99"/>
@@ -1660,23 +2132,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001C772-0BDA-4779-9370-5F29ECF0E527}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D76A44A-487B-4B8F-94D0-5B27F9C0034F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC4DC83-DA0F-4347-93E4-8986B7A21557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1691,28 +2172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470018E9-EFA3-4DE3-BA93-FBB8AC2B6B37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2B3CEE-7EA1-4FBA-BE2E-A56330E06A97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Computational-books&papers/private/801.xlsx
+++ b/Computational-books&papers/private/801.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\GitHub\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1824667-C48C-45C9-9486-A62540E57824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60097303-A862-4603-8539-AB149DDA2DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ps (17)" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -1934,21 +1934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005789861B4AC166498CF31F7C64E93238" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20b9ac66db6402ca7b720c4647acc95e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c740888d-e76c-4a8c-9ce1-656901917f99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6087beea90c2e613138f32a5d0e4024" ns3:_="">
     <xsd:import namespace="c740888d-e76c-4a8c-9ce1-656901917f99"/>
@@ -2132,31 +2117,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001C772-0BDA-4779-9370-5F29ECF0E527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC4DC83-DA0F-4347-93E4-8986B7A21557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2172,4 +2148,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001C772-0BDA-4779-9370-5F29ECF0E527}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Computational-books&papers/private/801.xlsx
+++ b/Computational-books&papers/private/801.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\GitHub\Coupling-Model\Computational-books&amp;papers\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60097303-A862-4603-8539-AB149DDA2DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB76434-D5D4-4A73-9DD4-E4A9B86C7E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ps (17)" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>a++</t>
   </si>
   <si>
-    <t>xx</t>
+    <t>x+</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,9 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>36</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1827,7 +1829,9 @@
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>36</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1934,6 +1938,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005789861B4AC166498CF31F7C64E93238" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20b9ac66db6402ca7b720c4647acc95e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c740888d-e76c-4a8c-9ce1-656901917f99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6087beea90c2e613138f32a5d0e4024" ns3:_="">
     <xsd:import namespace="c740888d-e76c-4a8c-9ce1-656901917f99"/>
@@ -2117,15 +2130,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2133,6 +2137,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAC4DC83-DA0F-4347-93E4-8986B7A21557}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2146,14 +2158,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Computational-books&papers/private/801.xlsx
+++ b/Computational-books&papers/private/801.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB76434-D5D4-4A73-9DD4-E4A9B86C7E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D8EE4-C188-4A7E-BD2E-C4C7564D869B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,9 @@
       <c r="J3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>35</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1265,7 +1267,9 @@
       <c r="J4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>32</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1306,7 +1310,9 @@
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>46</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1347,7 +1353,9 @@
       <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>28</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1427,7 +1435,9 @@
       <c r="J8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>40</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1468,7 +1478,9 @@
       <c r="J9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>25</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1509,7 +1521,9 @@
       <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>39</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1589,7 +1603,9 @@
       <c r="J12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>44</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1630,7 +1646,9 @@
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>43</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1671,7 +1689,9 @@
       <c r="J14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>41</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1712,7 +1732,9 @@
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>42</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1753,7 +1775,9 @@
       <c r="J16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>42</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1794,7 +1818,9 @@
       <c r="J17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>43</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1835,7 +1861,9 @@
       <c r="J18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>39</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1876,7 +1904,9 @@
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>39</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1917,7 +1947,9 @@
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>31</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1938,12 +1970,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2131,15 +2160,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001C772-0BDA-4779-9370-5F29ECF0E527}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2163,17 +2203,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3001C772-0BDA-4779-9370-5F29ECF0E527}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B35A8FEC-6795-4166-9E7D-72D67260B49F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>